--- a/gerarcartazteste.xlsx
+++ b/gerarcartazteste.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="178">
   <si>
     <t>PLU</t>
   </si>
@@ -361,6 +361,198 @@
   </si>
   <si>
     <t>Batata Imp Pringles Creme Cebola 109g</t>
+  </si>
+  <si>
+    <t>1040340</t>
+  </si>
+  <si>
+    <t>Azeite Arribas Do Douro Virgem 3l</t>
+  </si>
+  <si>
+    <t>1038028</t>
+  </si>
+  <si>
+    <t>Azeite Esp Casa Do Azeite Ex Vg Vd 500ml</t>
+  </si>
+  <si>
+    <t>924249</t>
+  </si>
+  <si>
+    <t>1041045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolinho Bacalhau Damm Cong Bdj 300g </t>
+  </si>
+  <si>
+    <t>103702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombom Aust Maitre Praline Rosas 400g </t>
+  </si>
+  <si>
+    <t>108150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombom Baci Latte Milk Bag 125g </t>
+  </si>
+  <si>
+    <t>1037943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombom Baci Mini Eggs 150g </t>
+  </si>
+  <si>
+    <t>101148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombom Belga Guylian Frutos Do Mar 125g </t>
+  </si>
+  <si>
+    <t>101146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombom Belga Guylian Frutos Do Mar 250g </t>
+  </si>
+  <si>
+    <t>1040707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombom Belgian Members Seashells 250g </t>
+  </si>
+  <si>
+    <t>1040693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bombom Elit Gourmet Dragee Prestij 400g </t>
+  </si>
+  <si>
+    <t>103064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carpaccio De Salmao Damm 100g </t>
+  </si>
+  <si>
+    <t>104475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casquinha De Camarao Damm 330g </t>
+  </si>
+  <si>
+    <t>104487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburguer De Salmao Damm 360g  </t>
+  </si>
+  <si>
+    <t>1038478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lombo De Bacalhau s Espinhas Damm 800g </t>
+  </si>
+  <si>
+    <t>1041061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molho Carpaccio Damm Vd 170g </t>
+  </si>
+  <si>
+    <t>1040413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molho Colle Del Tartufo Pesto Genovese c Tartufo 180g </t>
+  </si>
+  <si>
+    <t>1040430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molho Colle Del Tartufo Salsa Alfredo 180g </t>
+  </si>
+  <si>
+    <t>1040456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molho Colle Del Tartufo Salsa Bianco 90g </t>
+  </si>
+  <si>
+    <t>1040464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molho Colle Del Tartufo Salsa Nero 90g </t>
+  </si>
+  <si>
+    <t>1040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molho Colle Del Tartufo Tartufo e Porcini 180g </t>
+  </si>
+  <si>
+    <t>100799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretzel Schokoladen Doce Coberto De Chocolate 500g </t>
+  </si>
+  <si>
+    <t>1041150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qjo Brie Campo Lindo Cremin 140g </t>
+  </si>
+  <si>
+    <t>1030051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qjo Emmental Polenghi Frac Kg </t>
+  </si>
+  <si>
+    <t>1030043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qjo Gouda Polenghi Frac Kg </t>
+  </si>
+  <si>
+    <t>1009958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qjo Mussarela Polenghi Fat 150g </t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qjo Polenghi Selection Grana Kg </t>
+  </si>
+  <si>
+    <t>1009966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qjo Prato Polenghi Fat 150g </t>
+  </si>
+  <si>
+    <t>1030060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qjo Suico Polenghi Frac Kg </t>
+  </si>
+  <si>
+    <t>103466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queijo Ile De France Petit Camembert 125g </t>
+  </si>
+  <si>
+    <t>1039792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmao Damm File Def Ped c Pele 125g </t>
+  </si>
+  <si>
+    <t>Qjo Suico Polenghi Frac Kg</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Azeite La Rioja Ev Pet 5010ml</t>
   </si>
 </sst>
 </file>
@@ -416,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -428,6 +620,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -723,16 +916,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F61"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -755,1205 +948,843 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7">
-        <v>3445</v>
+      <c r="A2" t="s">
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5">
-        <v>104</v>
-      </c>
-      <c r="D2" s="3">
-        <v>73</v>
+        <v>115</v>
+      </c>
+      <c r="C2">
+        <v>265</v>
+      </c>
+      <c r="D2">
+        <v>265</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7">
-        <v>1038346</v>
+      <c r="A3" t="s">
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>44.9</v>
+      </c>
+      <c r="D3">
+        <v>44.9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4">
+        <v>398</v>
+      </c>
+      <c r="D4">
+        <v>398</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6">
         <v>54.5</v>
       </c>
-      <c r="D3" s="3">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="7">
-        <v>1038397</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="D6">
+        <v>54.5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>97</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11">
+        <v>37.5</v>
+      </c>
+      <c r="D11">
+        <v>37.5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <v>110</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7">
-        <v>108512</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7">
-        <v>694805</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>33.5</v>
+      </c>
+      <c r="D15">
+        <v>33.5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <v>88</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17">
+        <v>9.9</v>
+      </c>
+      <c r="D17">
+        <v>9.9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18">
         <v>43</v>
       </c>
-      <c r="D6" s="6">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7">
-        <v>105432</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10.8</v>
-      </c>
-      <c r="D7" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7">
-        <v>1035720</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5">
-        <v>29.5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7">
-        <v>982168</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7">
-        <v>1034731</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5">
-        <v>14.5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7">
-        <v>782801</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5">
-        <v>33.5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="7">
-        <v>110337</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5">
-        <v>15.5</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="D18">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D19">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21">
+        <v>45.5</v>
+      </c>
+      <c r="D21">
+        <v>45.5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D22">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23">
+        <v>34.5</v>
+      </c>
+      <c r="D23">
+        <v>34.5</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25">
+        <v>140</v>
+      </c>
+      <c r="D25">
+        <v>140</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26">
+        <v>140</v>
+      </c>
+      <c r="D26">
+        <v>140</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27">
         <v>9.9</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7">
-        <v>863702</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="7">
-        <v>104294</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5">
-        <v>15.5</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="D27">
         <v>9.9</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7">
-        <v>1017829</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="E27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28">
         <v>170</v>
       </c>
-      <c r="D15" s="6">
-        <v>110</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="7">
-        <v>1029746</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8">
-        <v>1014633</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="8">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4">
-        <v>23</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8">
-        <v>1021257</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="8">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4">
-        <v>24.9</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8">
-        <v>1013289</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="8">
-        <v>59</v>
-      </c>
-      <c r="D19" s="4">
-        <v>41</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8">
-        <v>100534</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="8">
-        <v>16.8</v>
-      </c>
-      <c r="D20" s="9">
-        <v>11</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8">
-        <v>333463</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="8">
-        <v>31.5</v>
-      </c>
-      <c r="D21" s="9">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8">
-        <v>1119</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="8">
-        <v>120</v>
-      </c>
-      <c r="D22" s="9">
-        <v>78</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8">
-        <v>179535</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="8">
-        <v>33.9</v>
-      </c>
-      <c r="D23" s="9">
-        <v>23.5</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8">
-        <v>246885</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8">
-        <v>36</v>
-      </c>
-      <c r="D24" s="9">
-        <v>23</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8">
-        <v>498013</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="8">
-        <v>33.9</v>
-      </c>
-      <c r="D25" s="9">
-        <v>23.5</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8">
-        <v>103139</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="8">
-        <v>27</v>
-      </c>
-      <c r="D26" s="9">
-        <v>18</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8">
-        <v>959753</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="8">
-        <v>33.9</v>
-      </c>
-      <c r="D27" s="9">
-        <v>23.5</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8">
-        <v>1008757</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="8">
-        <v>7.2</v>
-      </c>
-      <c r="D28" s="9">
-        <v>4.2</v>
+      <c r="D28">
+        <v>170</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8">
-        <v>682719</v>
+      <c r="A29" t="s">
+        <v>167</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="8">
-        <v>33.9</v>
-      </c>
-      <c r="D29" s="9">
-        <v>23.5</v>
+        <v>168</v>
+      </c>
+      <c r="C29">
+        <v>9.9</v>
+      </c>
+      <c r="D29">
+        <v>9.9</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8">
-        <v>102188</v>
+      <c r="A30" t="s">
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="8">
-        <v>16</v>
-      </c>
-      <c r="D30" s="9">
-        <v>9.9</v>
+        <v>170</v>
+      </c>
+      <c r="C30">
+        <v>140</v>
+      </c>
+      <c r="D30">
+        <v>140</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8">
-        <v>1032283</v>
+      <c r="A31" t="s">
+        <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="8">
-        <v>42</v>
-      </c>
-      <c r="D31" s="9">
-        <v>28</v>
+        <v>172</v>
+      </c>
+      <c r="C31">
+        <v>32.5</v>
+      </c>
+      <c r="D31">
+        <v>32.5</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="8">
-        <v>1008790</v>
+      <c r="A32" t="s">
+        <v>173</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="8">
-        <v>7.2</v>
-      </c>
-      <c r="D32" s="9">
-        <v>4.9000000000000004</v>
+        <v>174</v>
+      </c>
+      <c r="C32">
+        <v>26.5</v>
+      </c>
+      <c r="D32">
+        <v>26.5</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="8">
-        <v>1037633</v>
+      <c r="A33" t="s">
+        <v>176</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="8">
-        <v>34</v>
-      </c>
-      <c r="D33" s="9">
-        <v>23.5</v>
+        <v>175</v>
+      </c>
+      <c r="C33">
+        <v>170</v>
+      </c>
+      <c r="D33">
+        <v>170</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8">
-        <v>1022717</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="8">
-        <v>11.8</v>
-      </c>
-      <c r="D34" s="9">
-        <v>9.9</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8">
-        <v>1028510</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="8">
-        <v>9.9</v>
-      </c>
-      <c r="D35" s="9">
-        <v>6.9</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="8">
-        <v>1031295</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="8">
-        <v>82</v>
-      </c>
-      <c r="D36" s="9">
-        <v>53</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="8">
-        <v>1028545</v>
-      </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="8">
-        <v>10.9</v>
-      </c>
-      <c r="D37" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="8">
-        <v>108787</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="8">
-        <v>26</v>
-      </c>
-      <c r="D38" s="9">
-        <v>17.5</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="8">
-        <v>1037935</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="8">
-        <v>118</v>
-      </c>
-      <c r="D39" s="9">
-        <v>93.9</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="8">
-        <v>1006061</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="8">
-        <v>84</v>
-      </c>
-      <c r="D40" s="9">
-        <v>66</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="8">
-        <v>1022466</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="8">
-        <v>25.5</v>
-      </c>
-      <c r="D41" s="9">
-        <v>15.5</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="8">
-        <v>1269</v>
-      </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="8">
-        <v>72</v>
-      </c>
-      <c r="D42" s="9">
-        <v>49</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="8">
-        <v>108514</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="8">
-        <v>32</v>
-      </c>
-      <c r="D43" s="9">
-        <v>23</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="8">
-        <v>1017020</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="8">
-        <v>33</v>
-      </c>
-      <c r="D44" s="9">
-        <v>22</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="8">
-        <v>1039334</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="8">
-        <v>67</v>
-      </c>
-      <c r="D45" s="9">
-        <v>49</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="8">
-        <v>103209</v>
-      </c>
-      <c r="B46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="8">
-        <v>13</v>
-      </c>
-      <c r="D46" s="9">
-        <v>8</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="8">
-        <v>779526</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="8">
-        <v>15.5</v>
-      </c>
-      <c r="D47" s="9">
-        <v>9.9</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="8">
-        <v>515064</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="8">
-        <v>54</v>
-      </c>
-      <c r="D48" s="9">
-        <v>36</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="8">
-        <v>1016970</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="8">
-        <v>9.5</v>
-      </c>
-      <c r="D49" s="9">
-        <v>6.6</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="8">
-        <v>1034596</v>
-      </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="8">
-        <v>34</v>
-      </c>
-      <c r="D50" s="9">
-        <v>23</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="8">
-        <v>109196</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="8">
-        <v>19.5</v>
-      </c>
-      <c r="D51" s="9">
-        <v>13.5</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="8">
-        <v>1027</v>
-      </c>
-      <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="8">
-        <v>122</v>
-      </c>
-      <c r="D52" s="9">
-        <v>88</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="8">
-        <v>4633</v>
-      </c>
-      <c r="B53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="8">
-        <v>127</v>
-      </c>
-      <c r="D53" s="9">
-        <v>86</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8">
-        <v>334914</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="8">
-        <v>31.5</v>
-      </c>
-      <c r="D54" s="9">
-        <v>21</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8">
-        <v>1031783</v>
-      </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="8">
-        <v>21</v>
-      </c>
-      <c r="D55" s="9">
-        <v>16</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8">
-        <v>100274</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="8">
-        <v>36</v>
-      </c>
-      <c r="D56" s="9">
-        <v>24</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="8">
-        <v>105451</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="8">
-        <v>78</v>
-      </c>
-      <c r="D57" s="9">
-        <v>49</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8">
-        <v>940490</v>
-      </c>
-      <c r="B58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="8">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="D58" s="9">
-        <v>39</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="8">
-        <v>101684</v>
-      </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="8">
-        <v>78</v>
-      </c>
-      <c r="D59" s="9">
-        <v>49</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="8">
-        <v>1032330</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="8">
-        <v>29.9</v>
-      </c>
-      <c r="D60" s="9">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="8">
-        <v>1009524</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="D61" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:F86">
